--- a/biology/Zoologie/Fulvetta_de_Hodgson/Fulvetta_de_Hodgson.xlsx
+++ b/biology/Zoologie/Fulvetta_de_Hodgson/Fulvetta_de_Hodgson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fulvetta vinipectus
 La Fulvetta de Hodgson (Fulvetta vinipectus), anciennement connu en tant qu'Alcippe de Hodgson, est une espèce de passereaux de la famille des Paradoxornithidae, longtemps incluse dans le genre Alcippe.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit au Bhoutan, en Chine, en Inde, au Myanmar, au Népal et au Vietnam.
 </t>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sous-espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des huit sous-espèces suivantes (ordre phylogénique) :
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des huit sous-espèces suivantes (ordre phylogénique) :
 F. vinipectus kangrae Ticehurst &amp; Whistler, 1924 ;
 F. vinipectus vinipectus (Hodgson, 1837)
 F. vinipectus chumbiensis Kinnear, 1939
@@ -554,9 +573,43 @@
 F. vinipectus ripponi (Harington, 1913)
 F. vinipectus perstriata Mayr, 1941 ;
 F. vinipectus valentinae (Delacour &amp; Jabouille, 1930) ;
-F. vinipectus bieti (Oustalet 1892).
-Synonymes
-Mesia vinipectus (protonyme)Hodgson, 1838
+F. vinipectus bieti (Oustalet 1892).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fulvetta_de_Hodgson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fulvetta_de_Hodgson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mesia vinipectus (protonyme)Hodgson, 1838
 Alcippe vinipectus (Hodgson, 1838)</t>
         </is>
       </c>
